--- a/week 1 task.xlsx
+++ b/week 1 task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be8f436690462624/Desktop/excel task 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070C5298-BDA5-43F1-B4F6-AD150328FB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{070C5298-BDA5-43F1-B4F6-AD150328FB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1F1C54F-3B02-4B82-AEF9-17E4AF31D54D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{37B824EB-BC14-4B65-9F7E-F54B92544D91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{37B824EB-BC14-4B65-9F7E-F54B92544D91}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Address</t>
   </si>
@@ -678,6 +678,15 @@
   </si>
   <si>
     <t>performance rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -841,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -897,6 +906,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,13 +960,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Analysis</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>product sales of per-months</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Products</a:t>
-            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" baseline="0"/>
           </a:p>
           <a:p>
             <a:pPr>
@@ -1609,12 +1623,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of products</a:t>
+              <a:t>product proportion</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3641,7 +3651,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,16 +3792,19 @@
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" cm="1">
-        <f t="array" ref="F16">SUM(C9:C14&lt;"500")</f>
-        <v>0</v>
+      <c r="F16" s="3">
+        <f>SUMIF(C9:C14,"&gt;500",C9:C14)</f>
+        <v>1250</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <f>COUNTIFS(B9:B14,"San Diego",D9:D14,"&gt;=2")</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4017,7 +4030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEA22F5-78BD-4670-A1FB-21F1B7E4F6D8}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -4025,6 +4038,7 @@
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4038,7 +4052,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4051,7 +4065,10 @@
       <c r="C2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="str">
+        <f>INDEX(C2:C5,MATCH(E1,A2:A5,0))</f>
+        <v>Phoenix</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>38</v>
       </c>
@@ -4111,55 +4128,115 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2967E7-DA40-4639-9B80-4525EA981DA7}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>86.999999999999957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(B14:B18)</f>
+        <v>74.999999999999986</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +4516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3615FE-87D6-475A-919F-1D6C63181947}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
